--- a/xlsx/country_comparison/custom_redistr_satisfied_mean.xlsx
+++ b/xlsx/country_comparison/custom_redistr_satisfied_mean.xlsx
@@ -566,16 +566,16 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>249.669690424781</v>
+        <v>247.349257777547</v>
       </c>
       <c r="C5" t="n">
-        <v>264.716784451403</v>
+        <v>259.459866270917</v>
       </c>
       <c r="D5" t="n">
         <v>239.112509239516</v>
       </c>
       <c r="E5" t="n">
-        <v>246.54101534795</v>
+        <v>242.868070200222</v>
       </c>
       <c r="F5" t="n">
         <v>282.225515803236</v>
@@ -584,16 +584,16 @@
         <v>288.463865854019</v>
       </c>
       <c r="H5" t="n">
-        <v>275.998029343225</v>
+        <v>272.784403600927</v>
       </c>
       <c r="I5" t="n">
-        <v>262.611195510265</v>
+        <v>248.420806426136</v>
       </c>
       <c r="J5" t="n">
-        <v>216.758146404097</v>
+        <v>217.581780325461</v>
       </c>
       <c r="K5" t="n">
-        <v>224.33095976781</v>
+        <v>224.86166955442</v>
       </c>
       <c r="L5" t="n">
         <v>267.51084581058</v>
@@ -607,16 +607,16 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>5.43977954204137</v>
+        <v>5.43932924266909</v>
       </c>
       <c r="C6" t="n">
-        <v>5.78997559562694</v>
+        <v>5.78615006681583</v>
       </c>
       <c r="D6" t="n">
         <v>5.28541337645467</v>
       </c>
       <c r="E6" t="n">
-        <v>5.46462588932396</v>
+        <v>5.46207705182127</v>
       </c>
       <c r="F6" t="n">
         <v>6.24737743711047</v>
@@ -625,16 +625,16 @@
         <v>6.63275426876322</v>
       </c>
       <c r="H6" t="n">
-        <v>5.97025758232712</v>
+        <v>5.97658731409573</v>
       </c>
       <c r="I6" t="n">
-        <v>5.57184827609392</v>
+        <v>5.55721448027376</v>
       </c>
       <c r="J6" t="n">
-        <v>4.67596527806762</v>
+        <v>4.6981207899457</v>
       </c>
       <c r="K6" t="n">
-        <v>4.59514129150117</v>
+        <v>4.60593126685029</v>
       </c>
       <c r="L6" t="n">
         <v>5.7788940086756</v>
